--- a/供销合同/园林机械厂-钢材供销合同.xlsx
+++ b/供销合同/园林机械厂-钢材供销合同.xlsx
@@ -210,14 +210,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -265,11 +265,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,14 +334,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,36 +350,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,32 +371,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,13 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -415,6 +415,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -430,19 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,37 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,30 +574,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,12 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,11 +682,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +746,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -735,36 +765,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,76 +933,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,48 +1155,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1227455" y="6546215"/>
-          <a:ext cx="544195" cy="483235"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
@@ -1215,7 +1173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1224,48 +1182,6 @@
         <a:xfrm>
           <a:off x="1133475" y="7913370"/>
           <a:ext cx="962025" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>570865</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1323340" y="8455660"/>
-          <a:ext cx="572135" cy="431165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,7 +1215,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1341,7 +1257,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1383,7 +1299,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1392,6 +1308,90 @@
         <a:xfrm>
           <a:off x="1028700" y="7287260"/>
           <a:ext cx="1209675" cy="453390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323340" y="6574155"/>
+          <a:ext cx="486410" cy="455295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>494030</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1246505" y="8456930"/>
+          <a:ext cx="601345" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/供销合同/园林机械厂-钢材供销合同.xlsx
+++ b/供销合同/园林机械厂-钢材供销合同.xlsx
@@ -210,14 +210,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -266,20 +266,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -287,23 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +294,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -335,14 +312,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +365,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -408,6 +401,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -415,6 +415,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -424,13 +484,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +526,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,139 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,36 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,6 +739,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -787,145 +787,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,52 +933,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,22 +987,22 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/供销合同/园林机械厂-钢材供销合同.xlsx
+++ b/供销合同/园林机械厂-钢材供销合同.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>钢 材 供 销 合 同</t>
   </si>
@@ -70,6 +70,15 @@
     <t>亮瓦</t>
   </si>
   <si>
+    <t>方管</t>
+  </si>
+  <si>
+    <t>40*60*2.0</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
     <t>普通钻尾钉</t>
   </si>
   <si>
@@ -103,12 +112,6 @@
     <t>2.0厚镀锌天沟</t>
   </si>
   <si>
-    <t>定金</t>
-  </si>
-  <si>
-    <t>尾款</t>
-  </si>
-  <si>
     <t>合计</t>
   </si>
   <si>
@@ -133,7 +136,7 @@
     <t>5）提货方式：需方自提，供方负责装车，运费需方自理。</t>
   </si>
   <si>
-    <t>6）付款方式：需方付定金（15000.00元），余款（37225.70元）待提货时打款。</t>
+    <t>6）付款方式：需方付定金（15000.00元），余款（39301.64元）待提货时打款。</t>
   </si>
   <si>
     <t>7）如需提供担保，另立合同担保书，作为本合同附件。</t>
@@ -210,14 +213,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -266,6 +269,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -286,14 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -301,17 +311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,15 +335,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -349,6 +352,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -358,14 +369,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +421,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,175 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,11 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,23 +742,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,16 +802,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,115 +820,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,13 +1075,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>351790</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1096,7 +1099,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104265" y="6082030"/>
+          <a:off x="1104265" y="6037580"/>
           <a:ext cx="981710" cy="420370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1114,13 +1117,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104140</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1138,7 +1141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="856615" y="5525135"/>
+          <a:off x="856615" y="5480685"/>
           <a:ext cx="1457960" cy="418465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1156,13 +1159,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1180,7 +1183,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="7913370"/>
+          <a:off x="1133475" y="7868920"/>
           <a:ext cx="962025" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1198,13 +1201,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>408940</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1222,7 +1225,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1161415" y="8959850"/>
+          <a:off x="1161415" y="8915400"/>
           <a:ext cx="915035" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1240,13 +1243,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>549910</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>301625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1264,7 +1267,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1302385" y="5219065"/>
+          <a:off x="1302385" y="5174615"/>
           <a:ext cx="507365" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1282,13 +1285,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1306,7 +1309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="7287260"/>
+          <a:off x="1028700" y="7242810"/>
           <a:ext cx="1209675" cy="453390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1324,13 +1327,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>570865</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1348,7 +1351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323340" y="6574155"/>
+          <a:off x="1323340" y="6529705"/>
           <a:ext cx="486410" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1366,13 +1369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>494030</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1390,7 +1393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1246505" y="8456930"/>
+          <a:off x="1246505" y="8412480"/>
           <a:ext cx="601345" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1665,13 +1668,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="2" customWidth="1"/>
@@ -1680,11 +1683,10 @@
     <col min="6" max="6" width="11.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="2"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:8">
+    <row r="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1698,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1710,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1722,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1779,11 +1781,11 @@
         <v>21.85</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ref="G6:G20" si="1">C6*F6</f>
+        <f t="shared" ref="G6:G21" si="1">C6*F6</f>
         <v>173.7075</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H20" si="2">G6*D6</f>
+        <f t="shared" ref="H6:H21" si="2">G6*D6</f>
         <v>6948.3</v>
       </c>
     </row>
@@ -2046,7 +2048,7 @@
         <v>2.2</v>
       </c>
       <c r="D17" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>16</v>
@@ -2061,7 +2063,7 @@
       </c>
       <c r="H17" s="9">
         <f t="shared" si="2"/>
-        <v>17908.605</v>
+        <v>18409.545</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
@@ -2147,159 +2149,159 @@
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="11">
+        <v>15</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="12">
+        <v>105</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>F21*D21</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9">
         <v>4.5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>4</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12">
+      <c r="E22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="12">
         <f>27.5*1.15</f>
         <v>31.625</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <f t="shared" ref="H21:H24" si="4">D21*F21</f>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <f t="shared" ref="H22:H25" si="4">D22*F22</f>
         <v>126.5</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9">
+    <row r="23" s="2" customFormat="1" spans="1:8">
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9">
         <v>2.5</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>4</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="12">
         <f>33*1.15</f>
         <v>37.95</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
-        <f t="shared" si="4"/>
-        <v>151.8</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="9">
-        <v>100</v>
-      </c>
-      <c r="D23" s="11">
-        <v>4</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="12">
-        <f>27.5*1.15</f>
-        <v>31.625</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9">
         <f t="shared" si="4"/>
-        <v>126.5</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9"/>
+        <v>151.8</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="9">
-        <v>2.5</v>
+        <v>100</v>
       </c>
       <c r="D24" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="12">
-        <f>100*1.15</f>
-        <v>115</v>
+        <f>27.5*1.15</f>
+        <v>31.625</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="24" spans="1:8">
       <c r="A25" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="D25" s="11">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="12">
+        <f>100*1.15</f>
+        <v>115</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="24" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11">
+        <v>76</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="12">
         <f>12.5*1.15</f>
         <v>14.375</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" ref="G25:G29" si="5">C25*F25</f>
+      <c r="G26" s="9">
+        <f t="shared" ref="G26:G30" si="5">C26*F26</f>
         <v>86.25</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" ref="H25:H29" si="6">G25*D25</f>
+      <c r="H26" s="9">
+        <f t="shared" ref="H26:H30" si="6">G26*D26</f>
         <v>6555</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9">
-        <v>5.25</v>
-      </c>
-      <c r="D26" s="11">
-        <v>4</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="12">
-        <f>10.5*1.15</f>
-        <v>12.075</v>
-      </c>
-      <c r="G26" s="9">
-        <f t="shared" si="5"/>
-        <v>63.39375</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="6"/>
-        <v>253.575</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
-      <c r="A27" s="9"/>
+    <row r="27" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D27" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F27" s="12">
         <f>10.5*1.15</f>
@@ -2307,166 +2309,175 @@
       </c>
       <c r="G27" s="9">
         <f t="shared" si="5"/>
-        <v>60.375</v>
+        <v>63.39375</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="6"/>
-        <v>362.25</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>253.575</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
+      <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11">
         <v>6</v>
       </c>
-      <c r="D28" s="11">
-        <v>23</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="F28" s="12">
+        <f>10.5*1.15</f>
+        <v>12.075</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="5"/>
+        <v>60.375</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="6"/>
+        <v>362.25</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:8">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="11">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="12">
-        <f>19*1.15</f>
-        <v>21.85</v>
-      </c>
-      <c r="G29" s="9">
-        <f t="shared" si="5"/>
-        <v>131.1</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="6"/>
-        <v>786.6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:8">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9">
+        <v>6</v>
+      </c>
       <c r="D30" s="11">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="12">
+        <f>19*1.15</f>
+        <v>21.85</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="5"/>
+        <v>131.1</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="6"/>
+        <v>786.6</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:8">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11">
         <v>92</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="12">
+      <c r="E31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="12">
         <f>0.8*1.15</f>
         <v>0.92</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9">
-        <f>D30*F30</f>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
+        <f>D31*F31</f>
         <v>84.64</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:8">
-      <c r="A31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9">
-        <v>8</v>
-      </c>
-      <c r="D31" s="11">
-        <v>4</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
     <row r="32" s="2" customFormat="1" spans="1:8">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" ref="F32:F37" si="7">19*1.15</f>
-        <v>21.85</v>
-      </c>
-      <c r="G32" s="9">
-        <f>C32*F32</f>
-        <v>174.8</v>
-      </c>
-      <c r="H32" s="9">
-        <f>G32*D32</f>
-        <v>349.6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:8">
       <c r="A33" s="14"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9">
+        <v>8</v>
+      </c>
       <c r="D33" s="11">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" ref="F33:F38" si="7">19*1.15</f>
+        <v>21.85</v>
+      </c>
+      <c r="G33" s="9">
+        <f>C33*F33</f>
+        <v>174.8</v>
+      </c>
+      <c r="H33" s="9">
+        <f>G33*D33</f>
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11">
         <v>24</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="12">
         <f>0.8*1.15</f>
         <v>0.92</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9">
-        <f>D33*F33</f>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
+        <f>D34*F34</f>
         <v>22.08</v>
       </c>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="9">
-        <v>6.1</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:8">
       <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="9">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="D35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="9"/>
@@ -2476,32 +2487,23 @@
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="7"/>
-        <v>21.85</v>
-      </c>
-      <c r="G36" s="9">
-        <f>C36*F36</f>
-        <v>131.1</v>
-      </c>
-      <c r="H36" s="9">
-        <f>G36*D36</f>
-        <v>131.1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -2515,48 +2517,57 @@
       </c>
       <c r="G37" s="9">
         <f>C37*F37</f>
-        <v>87.4</v>
+        <v>131.1</v>
       </c>
       <c r="H37" s="9">
         <f>G37*D37</f>
-        <v>87.4</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
       <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="9">
+        <v>4</v>
+      </c>
       <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="7"/>
+        <v>21.85</v>
+      </c>
+      <c r="G38" s="9">
+        <f>C38*F38</f>
+        <v>87.4</v>
+      </c>
+      <c r="H38" s="9">
+        <f>G38*D38</f>
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:8">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="11">
         <v>15</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="12">
+      <c r="E39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="12">
         <f>0.8*1.15</f>
         <v>0.92</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9">
-        <f>D38*F38</f>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
+        <f>D39*F39</f>
         <v>13.8</v>
       </c>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:8">
-      <c r="A39" s="14"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9">
-        <v>6</v>
-      </c>
-      <c r="D39" s="11">
-        <v>7</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
       <c r="A40" s="14"/>
@@ -2565,59 +2576,59 @@
         <v>6</v>
       </c>
       <c r="D40" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="12">
-        <f>19*1.15</f>
-        <v>21.85</v>
-      </c>
-      <c r="G40" s="9">
-        <f t="shared" ref="G40:G45" si="8">C40*F40</f>
-        <v>131.1</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" ref="H40:H45" si="9">G40*D40</f>
-        <v>262.2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="14"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="9">
+        <v>6</v>
+      </c>
       <c r="D41" s="11">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F41" s="12">
-        <f>0.8*1.15</f>
-        <v>0.92</v>
-      </c>
-      <c r="G41" s="9"/>
+        <f>19*1.15</f>
+        <v>21.85</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" ref="G41:G46" si="8">C41*F41</f>
+        <v>131.1</v>
+      </c>
       <c r="H41" s="9">
-        <f>D41*F41</f>
-        <v>32.2</v>
+        <f t="shared" ref="H41:H46" si="9">G41*D41</f>
+        <v>262.2</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="9">
-        <v>6</v>
-      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="11">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F42" s="12">
+        <f>0.8*1.15</f>
+        <v>0.92</v>
+      </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="9">
+        <f>D42*F42</f>
+        <v>32.2</v>
+      </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:8">
       <c r="A43" s="14"/>
@@ -2626,149 +2637,140 @@
         <v>6</v>
       </c>
       <c r="D43" s="11">
+        <v>9</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:8">
+      <c r="A44" s="14"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11">
         <v>3</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <f>19*1.15</f>
         <v>21.85</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <f t="shared" si="8"/>
         <v>131.1</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="9">
         <f t="shared" si="9"/>
         <v>393.3</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:8">
-      <c r="A44" s="15"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="11">
+    <row r="45" s="2" customFormat="1" spans="1:8">
+      <c r="A45" s="15"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11">
         <v>45</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="12">
+      <c r="E45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="12">
         <f>0.8*1.15</f>
         <v>0.92</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9">
-        <f>D44*F44</f>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9">
+        <f>D45*F45</f>
         <v>41.4</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:8">
-      <c r="A45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9">
+    <row r="46" s="2" customFormat="1" spans="1:8">
+      <c r="A46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9">
         <v>6.5</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>1</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="E46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="12">
         <f>78*1.15</f>
         <v>89.7</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <f t="shared" si="8"/>
         <v>583.05</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="9">
         <f t="shared" si="9"/>
         <v>583.05</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:10">
+    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A48" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="16" t="s">
+    </row>
+    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A49" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16">
-        <f>SUM(H6:H47)</f>
-        <v>52225.6975</v>
-      </c>
-      <c r="I48" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J48" s="3">
-        <f>H48-I48</f>
-        <v>37225.6975</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18">
-        <f>H48</f>
-        <v>52225.6975</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="43" customHeight="1" spans="1:8">
-      <c r="A50" s="19" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16">
+        <f>SUM(H6:H48)</f>
+        <v>54301.6375</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18">
+        <f>H49</f>
+        <v>54301.6375</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="43" customHeight="1" spans="1:8">
       <c r="A51" s="19" t="s">
         <v>35</v>
       </c>
@@ -2780,7 +2782,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="21"/>
     </row>
-    <row r="52" ht="22" customHeight="1" spans="1:8">
+    <row r="52" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
       <c r="A52" s="19" t="s">
         <v>36</v>
       </c>
@@ -2804,7 +2806,7 @@
       <c r="G53" s="20"/>
       <c r="H53" s="21"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="54" ht="22" customHeight="1" spans="1:8">
       <c r="A54" s="19" t="s">
         <v>38</v>
       </c>
@@ -2816,7 +2818,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="21"/>
     </row>
-    <row r="55" ht="22" customHeight="1" spans="1:8">
+    <row r="55" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
       <c r="A55" s="19" t="s">
         <v>39</v>
       </c>
@@ -2876,7 +2878,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
+    <row r="60" ht="22" customHeight="1" spans="1:8">
       <c r="A60" s="19" t="s">
         <v>44</v>
       </c>
@@ -2888,56 +2890,54 @@
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" ht="15" customHeight="1" spans="1:8">
-      <c r="A61" s="22" t="s">
+    <row r="61" s="2" customFormat="1" ht="22" customHeight="1" spans="1:8">
+      <c r="A61" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="1:8">
+      <c r="A62" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="1:8">
-      <c r="A62" s="23" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23" t="s">
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="1:8">
+      <c r="A63" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" ht="30" customHeight="1" spans="1:8">
-      <c r="A63" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:8">
+    <row r="64" ht="30" customHeight="1" spans="1:8">
       <c r="A64" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -2946,12 +2946,12 @@
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:8">
       <c r="A65" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
@@ -2960,12 +2960,12 @@
     </row>
     <row r="66" ht="15" customHeight="1" spans="1:8">
       <c r="A66" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
@@ -2974,12 +2974,12 @@
     </row>
     <row r="67" ht="15" customHeight="1" spans="1:8">
       <c r="A67" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="68" ht="15" customHeight="1" spans="1:8">
       <c r="A68" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -3007,24 +3007,38 @@
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" ht="22" customHeight="1" spans="1:8">
-      <c r="A70" s="24" t="s">
+    <row r="70" ht="15" customHeight="1" spans="1:8">
+      <c r="A70" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" ht="22" customHeight="1" spans="1:8">
+      <c r="A71" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -3032,10 +3046,9 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="A51:H51"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="A53:H53"/>
@@ -3046,8 +3059,7 @@
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A59:H59"/>
     <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="A61:H61"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="D62:H62"/>
     <mergeCell ref="A63:C63"/>
@@ -3064,24 +3076,26 @@
     <mergeCell ref="D68:H68"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="D69:H69"/>
-    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="A71:H71"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="B6:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
   </mergeCells>
   <pageMargins left="0.629166666666667" right="0.393055555555556" top="0.668055555555556" bottom="0.511805555555556" header="0.511805555555556" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
